--- a/data/pca/factorExposure/factorExposure_2018-05-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0136041865879327</v>
+        <v>0.01894673189370315</v>
       </c>
       <c r="C2">
-        <v>-0.0259379129611947</v>
+        <v>-0.0167184427480665</v>
       </c>
       <c r="D2">
-        <v>0.0106258708726129</v>
+        <v>0.02927512294677015</v>
       </c>
       <c r="E2">
-        <v>0.01300848477053156</v>
+        <v>0.01606077430003497</v>
       </c>
       <c r="F2">
-        <v>-0.113801526796009</v>
+        <v>-0.005335758940761451</v>
       </c>
       <c r="G2">
-        <v>0.07303053638539128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.04451564539011973</v>
+      </c>
+      <c r="H2">
+        <v>0.04767239933148697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08991876905351245</v>
+        <v>0.0808256924793537</v>
       </c>
       <c r="C3">
-        <v>-0.0101556902874402</v>
+        <v>0.0150431770691714</v>
       </c>
       <c r="D3">
-        <v>0.06800622306787757</v>
+        <v>0.05794305548922217</v>
       </c>
       <c r="E3">
-        <v>0.09363130767742084</v>
+        <v>0.01242190776888494</v>
       </c>
       <c r="F3">
-        <v>-0.3948023464954144</v>
+        <v>0.01687119600158177</v>
       </c>
       <c r="G3">
-        <v>0.2497391124841075</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.173743971824962</v>
+      </c>
+      <c r="H3">
+        <v>0.1485694445054997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04141711465282239</v>
+        <v>0.04655285314302932</v>
       </c>
       <c r="C4">
-        <v>0.002908200427085989</v>
+        <v>-0.001443038786427441</v>
       </c>
       <c r="D4">
-        <v>-0.001596007988072308</v>
+        <v>0.05711820960548765</v>
       </c>
       <c r="E4">
-        <v>-0.04609507126731488</v>
+        <v>-0.01867181303680485</v>
       </c>
       <c r="F4">
-        <v>-0.07946264247175902</v>
+        <v>-0.04533833169053893</v>
       </c>
       <c r="G4">
-        <v>0.04567301421947703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03968166735283517</v>
+      </c>
+      <c r="H4">
+        <v>0.05807815079662735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.029874492403284</v>
+        <v>0.02769018204142448</v>
       </c>
       <c r="C6">
-        <v>-0.007909500478411428</v>
+        <v>0.001496470134538659</v>
       </c>
       <c r="D6">
-        <v>0.006954595259298636</v>
+        <v>0.05921755822696006</v>
       </c>
       <c r="E6">
-        <v>-0.02279115065357441</v>
+        <v>-0.004187517071071662</v>
       </c>
       <c r="F6">
-        <v>-0.01338107276541364</v>
+        <v>-0.03074878334358286</v>
       </c>
       <c r="G6">
-        <v>-0.01521433266640424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01087420685952907</v>
+      </c>
+      <c r="H6">
+        <v>0.06272358343924761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01913699956048239</v>
+        <v>0.0218986728074831</v>
       </c>
       <c r="C7">
-        <v>-0.0005266494620853062</v>
+        <v>-0.0007581720504055816</v>
       </c>
       <c r="D7">
-        <v>0.01605389301476231</v>
+        <v>0.03021268453855716</v>
       </c>
       <c r="E7">
-        <v>-0.02501739360833845</v>
+        <v>-0.04204846383410635</v>
       </c>
       <c r="F7">
-        <v>-0.05030034036719738</v>
+        <v>-0.002597901736683528</v>
       </c>
       <c r="G7">
-        <v>0.06766449824301253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02432075898043293</v>
+      </c>
+      <c r="H7">
+        <v>0.03866781177339298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01543454937406701</v>
+        <v>0.006907781913964468</v>
       </c>
       <c r="C8">
-        <v>-0.007279045699862183</v>
+        <v>0.002800933031611454</v>
       </c>
       <c r="D8">
-        <v>0.01140544240946754</v>
+        <v>0.01278895537566175</v>
       </c>
       <c r="E8">
-        <v>-0.03469465694230568</v>
+        <v>-0.005715014067232721</v>
       </c>
       <c r="F8">
-        <v>-0.101690336841951</v>
+        <v>-0.01927997231865859</v>
       </c>
       <c r="G8">
-        <v>0.05442387988077602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04070392337795471</v>
+      </c>
+      <c r="H8">
+        <v>0.04284110055968478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0320823465306376</v>
+        <v>0.03658157446043248</v>
       </c>
       <c r="C9">
-        <v>-0.003510742764216533</v>
+        <v>0.001257592244737537</v>
       </c>
       <c r="D9">
-        <v>0.006384953663480386</v>
+        <v>0.04175028613364667</v>
       </c>
       <c r="E9">
-        <v>-0.03591619557921528</v>
+        <v>-0.007211373577387188</v>
       </c>
       <c r="F9">
-        <v>-0.09651433367843913</v>
+        <v>-0.0222154915728803</v>
       </c>
       <c r="G9">
-        <v>0.04742877654972058</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04651331926821647</v>
+      </c>
+      <c r="H9">
+        <v>0.05664290505316528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03576923660832477</v>
+        <v>0.1045562539448343</v>
       </c>
       <c r="C10">
-        <v>0.06712038676412777</v>
+        <v>-8.468608790037801e-05</v>
       </c>
       <c r="D10">
-        <v>-0.07446979478957826</v>
+        <v>-0.1682533204144188</v>
       </c>
       <c r="E10">
-        <v>0.1282336367737993</v>
+        <v>0.001504761043436672</v>
       </c>
       <c r="F10">
-        <v>-0.04771023677926001</v>
+        <v>0.03638634184914109</v>
       </c>
       <c r="G10">
-        <v>0.01783450730079658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02996057817037995</v>
+      </c>
+      <c r="H10">
+        <v>0.002073479988125694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03097723536840263</v>
+        <v>0.02275122963234232</v>
       </c>
       <c r="C11">
-        <v>-0.02029293889485004</v>
+        <v>0.01249182428593495</v>
       </c>
       <c r="D11">
-        <v>0.01454228450357251</v>
+        <v>0.04558980017113438</v>
       </c>
       <c r="E11">
-        <v>-0.02753664881613498</v>
+        <v>0.001626389727674342</v>
       </c>
       <c r="F11">
-        <v>-0.05319335867964733</v>
+        <v>-0.0121405934541295</v>
       </c>
       <c r="G11">
-        <v>0.02190428904381827</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02766330927985293</v>
+      </c>
+      <c r="H11">
+        <v>0.05003294450530977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0393843908294275</v>
+        <v>0.02758368733793717</v>
       </c>
       <c r="C12">
-        <v>-0.02425512222382851</v>
+        <v>0.008953160665876158</v>
       </c>
       <c r="D12">
-        <v>0.007911607815339715</v>
+        <v>0.04427154233443094</v>
       </c>
       <c r="E12">
-        <v>-0.03519323776544288</v>
+        <v>-0.008317356486968568</v>
       </c>
       <c r="F12">
-        <v>-0.02623112822756742</v>
+        <v>-0.01506891026333935</v>
       </c>
       <c r="G12">
-        <v>0.01375719373649716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.008519284542764701</v>
+      </c>
+      <c r="H12">
+        <v>0.02199128572513386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01313039209195656</v>
+        <v>0.028857403871334</v>
       </c>
       <c r="C13">
-        <v>-0.02000901156611873</v>
+        <v>-0.0125464653810104</v>
       </c>
       <c r="D13">
-        <v>-0.003355740473236177</v>
+        <v>0.01750588240617046</v>
       </c>
       <c r="E13">
-        <v>0.0007214017616900012</v>
+        <v>0.01306057649547663</v>
       </c>
       <c r="F13">
-        <v>-0.08714712688421497</v>
+        <v>-0.02232163591828839</v>
       </c>
       <c r="G13">
-        <v>0.04669444086979738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06037611166731108</v>
+      </c>
+      <c r="H13">
+        <v>0.0747818644685157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01433618130538201</v>
+        <v>0.0187601615548077</v>
       </c>
       <c r="C14">
-        <v>0.0007182791462982114</v>
+        <v>-0.0001416727324339593</v>
       </c>
       <c r="D14">
-        <v>0.0006620869861429284</v>
+        <v>0.01162850706427106</v>
       </c>
       <c r="E14">
-        <v>-0.02811764127778542</v>
+        <v>-0.01277755479693812</v>
       </c>
       <c r="F14">
-        <v>-0.06035867310356544</v>
+        <v>-0.01482389889534658</v>
       </c>
       <c r="G14">
-        <v>0.05346868239115441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03996615846299082</v>
+      </c>
+      <c r="H14">
+        <v>0.01331216257008281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03015522868052558</v>
+        <v>0.02424987451826019</v>
       </c>
       <c r="C16">
-        <v>-0.02562644072845966</v>
+        <v>0.01183642227038459</v>
       </c>
       <c r="D16">
-        <v>0.01149882527410973</v>
+        <v>0.03762137637148934</v>
       </c>
       <c r="E16">
-        <v>-0.02849848098191151</v>
+        <v>-0.002016989160824385</v>
       </c>
       <c r="F16">
-        <v>-0.05086504984368997</v>
+        <v>-0.01571593018568883</v>
       </c>
       <c r="G16">
-        <v>0.01962419522734818</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02349839568220385</v>
+      </c>
+      <c r="H16">
+        <v>0.03774921756368208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03105522836398958</v>
+        <v>0.03132935686075677</v>
       </c>
       <c r="C19">
-        <v>-0.02192032342966726</v>
+        <v>0.001325534107515396</v>
       </c>
       <c r="D19">
-        <v>0.01595393025450692</v>
+        <v>0.03652479100093236</v>
       </c>
       <c r="E19">
-        <v>-0.02334933025290615</v>
+        <v>-0.00418679253159942</v>
       </c>
       <c r="F19">
-        <v>-0.1034845689119667</v>
+        <v>-0.02540063575707273</v>
       </c>
       <c r="G19">
-        <v>0.06063759720966805</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05604372251737373</v>
+      </c>
+      <c r="H19">
+        <v>0.06229076069501643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003611433330608515</v>
+        <v>0.01164224477095943</v>
       </c>
       <c r="C20">
-        <v>0.001812347496732805</v>
+        <v>-0.004182564890293221</v>
       </c>
       <c r="D20">
-        <v>0.0007445705051905658</v>
+        <v>0.02003653041416005</v>
       </c>
       <c r="E20">
-        <v>-0.02081998516184726</v>
+        <v>-0.003859881911651577</v>
       </c>
       <c r="F20">
-        <v>-0.0790668656366931</v>
+        <v>-0.01464701688014397</v>
       </c>
       <c r="G20">
-        <v>0.07997234880406205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05188309359310407</v>
+      </c>
+      <c r="H20">
+        <v>0.02749009545555434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0001680542441954837</v>
+        <v>0.01733684762716177</v>
       </c>
       <c r="C21">
-        <v>0.01701618752744132</v>
+        <v>-0.005580385309472997</v>
       </c>
       <c r="D21">
-        <v>0.02448011291254031</v>
+        <v>0.02159422138362018</v>
       </c>
       <c r="E21">
-        <v>-0.03032454882943916</v>
+        <v>-0.01828819015514601</v>
       </c>
       <c r="F21">
-        <v>-0.04097191694209339</v>
+        <v>-0.008407328234416152</v>
       </c>
       <c r="G21">
-        <v>0.01348480703234257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04781019362722952</v>
+      </c>
+      <c r="H21">
+        <v>0.0425835998058318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02789006728692303</v>
+        <v>0.01976860423486528</v>
       </c>
       <c r="C24">
-        <v>-0.01772289804423101</v>
+        <v>0.006479314206645712</v>
       </c>
       <c r="D24">
-        <v>0.002171782846369783</v>
+        <v>0.04108660537904472</v>
       </c>
       <c r="E24">
-        <v>-0.01548160889376497</v>
+        <v>-0.0002793135584821039</v>
       </c>
       <c r="F24">
-        <v>-0.04950324368445849</v>
+        <v>-0.01080085626239452</v>
       </c>
       <c r="G24">
-        <v>0.01906763807941494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01755470400835117</v>
+      </c>
+      <c r="H24">
+        <v>0.04628798143651348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02888644810241801</v>
+        <v>0.03199472620391586</v>
       </c>
       <c r="C25">
-        <v>-0.01425542639791524</v>
+        <v>0.004367242862999202</v>
       </c>
       <c r="D25">
-        <v>0.0174620087765481</v>
+        <v>0.04183962428775558</v>
       </c>
       <c r="E25">
-        <v>-0.02601976879035121</v>
+        <v>-0.005609335453629285</v>
       </c>
       <c r="F25">
-        <v>-0.05239858023149829</v>
+        <v>-0.0184023756380864</v>
       </c>
       <c r="G25">
-        <v>0.01134178399297398</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02175396425625153</v>
+      </c>
+      <c r="H25">
+        <v>0.04302268202866041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01799151627173047</v>
+        <v>0.01720495189864487</v>
       </c>
       <c r="C26">
-        <v>-0.01411644403027789</v>
+        <v>-0.01819188179676082</v>
       </c>
       <c r="D26">
-        <v>0.0182610053810893</v>
+        <v>0.00825883511052642</v>
       </c>
       <c r="E26">
-        <v>0.00155418296419669</v>
+        <v>1.48520247098496e-05</v>
       </c>
       <c r="F26">
-        <v>-0.06859655804139164</v>
+        <v>-0.002718293935464944</v>
       </c>
       <c r="G26">
-        <v>0.04529059257108708</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03047855548888585</v>
+      </c>
+      <c r="H26">
+        <v>0.02463809364802444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.05199043412066523</v>
+        <v>0.02071020592938714</v>
       </c>
       <c r="C27">
-        <v>-0.01599642154753491</v>
+        <v>0.007843695956992918</v>
       </c>
       <c r="D27">
-        <v>-0.02204746457701694</v>
+        <v>0.01365650791845368</v>
       </c>
       <c r="E27">
-        <v>-0.0369462489332737</v>
+        <v>-0.002887899075111305</v>
       </c>
       <c r="F27">
-        <v>-0.04304611526693038</v>
+        <v>-0.01195044334213461</v>
       </c>
       <c r="G27">
-        <v>0.05119055260018947</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.009717084384841208</v>
+      </c>
+      <c r="H27">
+        <v>-0.004246218083655214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06407789250661521</v>
+        <v>0.1547482066602734</v>
       </c>
       <c r="C28">
-        <v>0.09185662520026854</v>
+        <v>-0.009307071636878597</v>
       </c>
       <c r="D28">
-        <v>-0.1017303462042572</v>
+        <v>-0.2203765003411138</v>
       </c>
       <c r="E28">
-        <v>0.1585320949801386</v>
+        <v>-0.007372785419586619</v>
       </c>
       <c r="F28">
-        <v>-0.04638883046277929</v>
+        <v>0.03193659775341664</v>
       </c>
       <c r="G28">
-        <v>0.01663175626629948</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01754330373339316</v>
+      </c>
+      <c r="H28">
+        <v>-0.007824749012049988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0192161388878989</v>
+        <v>0.02372701073766869</v>
       </c>
       <c r="C29">
-        <v>0.0007999402894606616</v>
+        <v>0.001559835445565533</v>
       </c>
       <c r="D29">
-        <v>0.0003207890286720972</v>
+        <v>0.01169922390915903</v>
       </c>
       <c r="E29">
-        <v>-0.0361511541741743</v>
+        <v>-0.01319480413617035</v>
       </c>
       <c r="F29">
-        <v>-0.05966217445156539</v>
+        <v>-0.01654997251151788</v>
       </c>
       <c r="G29">
-        <v>0.04195344602116959</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03900288989567322</v>
+      </c>
+      <c r="H29">
+        <v>0.004962177410008452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.07988587840464723</v>
+        <v>0.0530583160302658</v>
       </c>
       <c r="C30">
-        <v>-0.04616752217299749</v>
+        <v>0.002026383716542523</v>
       </c>
       <c r="D30">
-        <v>0.0002827263963350388</v>
+        <v>0.08860099843565142</v>
       </c>
       <c r="E30">
-        <v>-0.06018278821054864</v>
+        <v>0.03236690545396159</v>
       </c>
       <c r="F30">
-        <v>-0.1106698507953089</v>
+        <v>-0.04866383727943221</v>
       </c>
       <c r="G30">
-        <v>0.06007468899485788</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05968550655527032</v>
+      </c>
+      <c r="H30">
+        <v>0.07886149335698708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05688423553974313</v>
+        <v>0.05003731261641017</v>
       </c>
       <c r="C31">
-        <v>-0.0299835842312059</v>
+        <v>0.01138762211838527</v>
       </c>
       <c r="D31">
-        <v>0.003753640284615483</v>
+        <v>0.02300345213285536</v>
       </c>
       <c r="E31">
-        <v>-0.01055003321830927</v>
+        <v>0.005126456693439767</v>
       </c>
       <c r="F31">
-        <v>-0.05237281803200132</v>
+        <v>-0.00575635838988115</v>
       </c>
       <c r="G31">
-        <v>0.05090161174937224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01853694695424635</v>
+      </c>
+      <c r="H31">
+        <v>0.002787098426471304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01645861543677209</v>
+        <v>0.01139844876738988</v>
       </c>
       <c r="C32">
-        <v>-0.0003545735549834576</v>
+        <v>0.0138004779104386</v>
       </c>
       <c r="D32">
-        <v>0.01492773327433275</v>
+        <v>0.009846972363434937</v>
       </c>
       <c r="E32">
-        <v>-0.06899531754343481</v>
+        <v>-0.0291073285574068</v>
       </c>
       <c r="F32">
-        <v>-0.07864641680246862</v>
+        <v>-0.04000513687861645</v>
       </c>
       <c r="G32">
-        <v>0.04039822690865882</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02975360938037283</v>
+      </c>
+      <c r="H32">
+        <v>0.05725025159949753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04203853474704392</v>
+        <v>0.03507763206232933</v>
       </c>
       <c r="C33">
-        <v>-0.03340175261564555</v>
+        <v>0.001960599753297596</v>
       </c>
       <c r="D33">
-        <v>0.03641158337291654</v>
+        <v>0.03773885838239611</v>
       </c>
       <c r="E33">
-        <v>-0.02196815601328591</v>
+        <v>0.02199321624739243</v>
       </c>
       <c r="F33">
-        <v>-0.08355441035365964</v>
+        <v>0.0002917064252304163</v>
       </c>
       <c r="G33">
-        <v>0.05648575182762933</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04566957978186607</v>
+      </c>
+      <c r="H33">
+        <v>0.04914517847512559</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02770587283458465</v>
+        <v>0.02976480345004835</v>
       </c>
       <c r="C34">
-        <v>-0.01921941356985167</v>
+        <v>0.02015815967414045</v>
       </c>
       <c r="D34">
-        <v>0.0104324765173513</v>
+        <v>0.03797325104328197</v>
       </c>
       <c r="E34">
-        <v>-0.03181073815445556</v>
+        <v>-0.0117618109215909</v>
       </c>
       <c r="F34">
-        <v>-0.05704260191564865</v>
+        <v>-0.0180951635206342</v>
       </c>
       <c r="G34">
-        <v>0.01751084994696802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01402252742567567</v>
+      </c>
+      <c r="H34">
+        <v>0.03694113452098317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01375225126226401</v>
+        <v>0.01826201139686591</v>
       </c>
       <c r="C36">
-        <v>0.001138638764547678</v>
+        <v>-0.005880725629355776</v>
       </c>
       <c r="D36">
-        <v>0.005681143599820197</v>
+        <v>0.003831015831103055</v>
       </c>
       <c r="E36">
-        <v>-0.02160887521885358</v>
+        <v>-0.007646095832698739</v>
       </c>
       <c r="F36">
-        <v>-0.03880523232742727</v>
+        <v>-0.002680316791317797</v>
       </c>
       <c r="G36">
-        <v>0.03218648078771347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02158739475444092</v>
+      </c>
+      <c r="H36">
+        <v>0.01614929210419079</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002049946712154454</v>
+        <v>0.02669350247237769</v>
       </c>
       <c r="C38">
-        <v>0.002287424257400804</v>
+        <v>0.01651492738720088</v>
       </c>
       <c r="D38">
-        <v>0.01500901566514545</v>
+        <v>0.01190423787851979</v>
       </c>
       <c r="E38">
-        <v>0.03127525877945228</v>
+        <v>0.0002934085455140474</v>
       </c>
       <c r="F38">
-        <v>-0.03683497725026862</v>
+        <v>-0.009306760778599543</v>
       </c>
       <c r="G38">
-        <v>0.01187777952861128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02336696231193665</v>
+      </c>
+      <c r="H38">
+        <v>0.04484308855364457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02964611346625753</v>
+        <v>0.01897985632547165</v>
       </c>
       <c r="C39">
-        <v>-0.03681454266222972</v>
+        <v>0.009916109530718807</v>
       </c>
       <c r="D39">
-        <v>0.01885671980876511</v>
+        <v>0.08588939256719696</v>
       </c>
       <c r="E39">
-        <v>-0.03378602317019098</v>
+        <v>0.007677148227547075</v>
       </c>
       <c r="F39">
-        <v>-0.06915462019814439</v>
+        <v>-0.01805862971987214</v>
       </c>
       <c r="G39">
-        <v>0.02708297196156517</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04003996603490408</v>
+      </c>
+      <c r="H39">
+        <v>0.07852135976545924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03183437049370467</v>
+        <v>0.03105198809083903</v>
       </c>
       <c r="C40">
-        <v>-0.06385722729140407</v>
+        <v>0.002432663986684983</v>
       </c>
       <c r="D40">
-        <v>-0.01521069153156172</v>
+        <v>0.0305077886734711</v>
       </c>
       <c r="E40">
-        <v>-0.004855994036106678</v>
+        <v>0.02540612785031665</v>
       </c>
       <c r="F40">
-        <v>-0.09097840260090084</v>
+        <v>-0.03486301126730147</v>
       </c>
       <c r="G40">
-        <v>0.04655896278071128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02156008187034577</v>
+      </c>
+      <c r="H40">
+        <v>0.06550710245019541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001094266536353025</v>
+        <v>0.01139933844470113</v>
       </c>
       <c r="C41">
-        <v>0.001042014439133658</v>
+        <v>-0.003259898319766537</v>
       </c>
       <c r="D41">
-        <v>0.009241802019793794</v>
+        <v>-0.01502173040105123</v>
       </c>
       <c r="E41">
-        <v>3.254112401281009e-05</v>
+        <v>0.0005698194844077647</v>
       </c>
       <c r="F41">
-        <v>-0.01491657798142203</v>
+        <v>0.003357529242686437</v>
       </c>
       <c r="G41">
-        <v>0.05210987519059318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.0009466337732063192</v>
+      </c>
+      <c r="H41">
+        <v>-0.005556681025973341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3472372070976224</v>
+        <v>0.1660180964138877</v>
       </c>
       <c r="C42">
-        <v>0.05548591273121095</v>
+        <v>-0.06214977370719377</v>
       </c>
       <c r="D42">
-        <v>0.7313724545655405</v>
+        <v>0.2413125196775033</v>
       </c>
       <c r="E42">
-        <v>0.4254240002387184</v>
+        <v>0.213478661001611</v>
       </c>
       <c r="F42">
-        <v>0.3085935250042328</v>
+        <v>0.8980194377959526</v>
       </c>
       <c r="G42">
-        <v>0.1635609803877126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1943339464680585</v>
+      </c>
+      <c r="H42">
+        <v>0.003750914901601828</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0005413932895808358</v>
+        <v>0.01429637860649892</v>
       </c>
       <c r="C43">
-        <v>0.0004126251114684153</v>
+        <v>-0.003240962102353818</v>
       </c>
       <c r="D43">
-        <v>0.01151948020553701</v>
+        <v>-0.01326622500328064</v>
       </c>
       <c r="E43">
-        <v>0.0001843374028907873</v>
+        <v>0.003576977479252699</v>
       </c>
       <c r="F43">
-        <v>-0.03379353544485673</v>
+        <v>0.004441795390446723</v>
       </c>
       <c r="G43">
-        <v>0.04933407234558187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.00249475779659219</v>
+      </c>
+      <c r="H43">
+        <v>0.008312920795325553</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01631821671687676</v>
+        <v>0.02040545711354265</v>
       </c>
       <c r="C44">
-        <v>0.003771427491862116</v>
+        <v>0.00644160599748848</v>
       </c>
       <c r="D44">
-        <v>0.01204388574688683</v>
+        <v>0.03290571200998057</v>
       </c>
       <c r="E44">
-        <v>0.0005372181783377148</v>
+        <v>-0.005845115989830519</v>
       </c>
       <c r="F44">
-        <v>-0.1121534986176875</v>
+        <v>-0.002240197559002535</v>
       </c>
       <c r="G44">
-        <v>0.08445796928069879</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04068073471647594</v>
+      </c>
+      <c r="H44">
+        <v>0.06518235494624597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01957937604273887</v>
+        <v>0.01613335875766834</v>
       </c>
       <c r="C46">
-        <v>-0.01583577591066345</v>
+        <v>-0.004351939690432296</v>
       </c>
       <c r="D46">
-        <v>0.0205721812897469</v>
+        <v>0.01322542203438563</v>
       </c>
       <c r="E46">
-        <v>-0.0370421691144308</v>
+        <v>0.001279030531837593</v>
       </c>
       <c r="F46">
-        <v>-0.07652198992451426</v>
+        <v>-0.01184033490536978</v>
       </c>
       <c r="G46">
-        <v>0.05761013497681461</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04471915404898991</v>
+      </c>
+      <c r="H46">
+        <v>0.007636550216623108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0904535519602586</v>
+        <v>0.07392297683982085</v>
       </c>
       <c r="C47">
-        <v>-0.02985598552489094</v>
+        <v>0.02870062576927426</v>
       </c>
       <c r="D47">
-        <v>-0.003770666911712637</v>
+        <v>0.04744745866645921</v>
       </c>
       <c r="E47">
-        <v>-0.0289751689990099</v>
+        <v>-0.00162879768792343</v>
       </c>
       <c r="F47">
-        <v>-0.04164681130734839</v>
+        <v>-0.01451932280819154</v>
       </c>
       <c r="G47">
-        <v>0.08607792460719804</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008457731444636421</v>
+      </c>
+      <c r="H47">
+        <v>-0.02353613336917372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01777449835592907</v>
+        <v>0.02116916055272795</v>
       </c>
       <c r="C48">
-        <v>-0.006962031541114663</v>
+        <v>0.005709780796011158</v>
       </c>
       <c r="D48">
-        <v>0.01126413709026885</v>
+        <v>0.0105690110901323</v>
       </c>
       <c r="E48">
-        <v>-0.02038072312534489</v>
+        <v>-0.0001743608743635767</v>
       </c>
       <c r="F48">
-        <v>-0.0418871032783143</v>
+        <v>-0.007132998504623068</v>
       </c>
       <c r="G48">
-        <v>0.02457228738749063</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02302040911491515</v>
+      </c>
+      <c r="H48">
+        <v>0.01797245913134843</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08659000109644786</v>
+        <v>0.0719673844801703</v>
       </c>
       <c r="C50">
-        <v>-0.02802915699752667</v>
+        <v>0.0256829405470223</v>
       </c>
       <c r="D50">
-        <v>0.01930087301272988</v>
+        <v>0.04657803653704844</v>
       </c>
       <c r="E50">
-        <v>-0.02840066536537478</v>
+        <v>-0.01433513903853675</v>
       </c>
       <c r="F50">
-        <v>-0.04462538673947657</v>
+        <v>-0.00503515494777353</v>
       </c>
       <c r="G50">
-        <v>0.03890282888947357</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.006133664647410209</v>
+      </c>
+      <c r="H50">
+        <v>-0.006288232158288154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.015179638760408</v>
+        <v>0.02104629310817182</v>
       </c>
       <c r="C51">
-        <v>0.005309101671023734</v>
+        <v>-0.0004870975619165365</v>
       </c>
       <c r="D51">
-        <v>-0.00439002122816835</v>
+        <v>0.005812487217174183</v>
       </c>
       <c r="E51">
-        <v>0.01463182303655398</v>
+        <v>-0.005695088681641242</v>
       </c>
       <c r="F51">
-        <v>-0.09506749281289187</v>
+        <v>-0.004242753589026232</v>
       </c>
       <c r="G51">
-        <v>0.06716653190151031</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03700479542901756</v>
+      </c>
+      <c r="H51">
+        <v>0.05012900093581499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1000766273750083</v>
+        <v>0.08882464947779668</v>
       </c>
       <c r="C53">
-        <v>-0.04100149891006349</v>
+        <v>0.03707351631803898</v>
       </c>
       <c r="D53">
-        <v>0.001244634511087665</v>
+        <v>0.08356407120344826</v>
       </c>
       <c r="E53">
-        <v>-0.0476437220159311</v>
+        <v>-0.00415441432043296</v>
       </c>
       <c r="F53">
-        <v>0.02582229766005485</v>
+        <v>-0.02868839923432108</v>
       </c>
       <c r="G53">
-        <v>0.02237193909103129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03742758598751965</v>
+      </c>
+      <c r="H53">
+        <v>-0.03597740432032345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01501669566854937</v>
+        <v>0.02833560989876271</v>
       </c>
       <c r="C54">
-        <v>0.002644864129442737</v>
+        <v>0.008068359374361745</v>
       </c>
       <c r="D54">
-        <v>9.266360155012548e-05</v>
+        <v>-0.01274675302993136</v>
       </c>
       <c r="E54">
-        <v>-0.02981661381803579</v>
+        <v>-0.006387987075264358</v>
       </c>
       <c r="F54">
-        <v>-0.04989745386224891</v>
+        <v>-0.006572549787230765</v>
       </c>
       <c r="G54">
-        <v>0.05078561098077906</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03814782662475104</v>
+      </c>
+      <c r="H54">
+        <v>0.001465627601290367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1002860920653346</v>
+        <v>0.07458879357867303</v>
       </c>
       <c r="C55">
-        <v>-0.01993719042407327</v>
+        <v>0.03345980178084271</v>
       </c>
       <c r="D55">
-        <v>0.005996699696258797</v>
+        <v>0.07835597724825502</v>
       </c>
       <c r="E55">
-        <v>-0.06517793161191344</v>
+        <v>-0.01281842112584855</v>
       </c>
       <c r="F55">
-        <v>0.01671369733734674</v>
+        <v>-0.02113373770025887</v>
       </c>
       <c r="G55">
-        <v>0.04921927609413828</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01528078748047935</v>
+      </c>
+      <c r="H55">
+        <v>-0.04482278716655918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1427463502266001</v>
+        <v>0.1229222390589055</v>
       </c>
       <c r="C56">
-        <v>-0.05700511286529093</v>
+        <v>0.05522662651355585</v>
       </c>
       <c r="D56">
-        <v>-0.03843045087710521</v>
+        <v>0.1016145809257876</v>
       </c>
       <c r="E56">
-        <v>-0.07579204747500139</v>
+        <v>-0.005723661143746261</v>
       </c>
       <c r="F56">
-        <v>0.05929057045978311</v>
+        <v>-0.0531068911573721</v>
       </c>
       <c r="G56">
-        <v>-0.02348009281408804</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07198972033375779</v>
+      </c>
+      <c r="H56">
+        <v>-0.06070990302309184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04413111798925058</v>
+        <v>0.03709459221033296</v>
       </c>
       <c r="C57">
-        <v>-0.02014867887718663</v>
+        <v>-0.0109829803571529</v>
       </c>
       <c r="D57">
-        <v>0.01169629998575281</v>
+        <v>0.03220536123041252</v>
       </c>
       <c r="E57">
-        <v>0.01401823038987161</v>
+        <v>0.01142547551485489</v>
       </c>
       <c r="F57">
-        <v>-0.054078489055716</v>
+        <v>-0.00816651259542318</v>
       </c>
       <c r="G57">
-        <v>0.04186652810438366</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.07242902842023022</v>
+      </c>
+      <c r="H57">
+        <v>0.04952009085134892</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2135186896254209</v>
+        <v>0.1373941446649136</v>
       </c>
       <c r="C58">
-        <v>-0.1164469870975523</v>
+        <v>0.04750469709962191</v>
       </c>
       <c r="D58">
-        <v>0.1030262099572827</v>
+        <v>0.1528677942881036</v>
       </c>
       <c r="E58">
-        <v>-0.08872623582325841</v>
+        <v>0.2170685197806759</v>
       </c>
       <c r="F58">
-        <v>-0.405853352765302</v>
+        <v>0.06984398363893587</v>
       </c>
       <c r="G58">
-        <v>-0.01137164993771809</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8147919475032819</v>
+      </c>
+      <c r="H58">
+        <v>-0.3893895986583376</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05567548342949763</v>
+        <v>0.1664264310459422</v>
       </c>
       <c r="C59">
-        <v>0.04499166093049763</v>
+        <v>-0.0005276149259808723</v>
       </c>
       <c r="D59">
-        <v>-0.1155746862133765</v>
+        <v>-0.2185686790291274</v>
       </c>
       <c r="E59">
-        <v>0.1449697365198405</v>
+        <v>0.01183366902659936</v>
       </c>
       <c r="F59">
-        <v>-0.0650540086833028</v>
+        <v>0.00335477595646657</v>
       </c>
       <c r="G59">
-        <v>-0.02328140516244654</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01893383674801876</v>
+      </c>
+      <c r="H59">
+        <v>0.02696513535069181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1512900764775993</v>
+        <v>0.1912120601579362</v>
       </c>
       <c r="C60">
-        <v>-0.07904153911921959</v>
+        <v>0.02780962270163851</v>
       </c>
       <c r="D60">
-        <v>0.01958014709178183</v>
+        <v>0.02498270870115083</v>
       </c>
       <c r="E60">
-        <v>0.09328543814795766</v>
+        <v>0.05162113315875912</v>
       </c>
       <c r="F60">
-        <v>-0.1769254916226172</v>
+        <v>-0.05444207851641646</v>
       </c>
       <c r="G60">
-        <v>-0.3162198193746693</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.02755903556450513</v>
+      </c>
+      <c r="H60">
+        <v>0.3720282574101705</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02122114567019374</v>
+        <v>0.0234765461375694</v>
       </c>
       <c r="C61">
-        <v>-0.02350800811417293</v>
+        <v>0.0118088601239807</v>
       </c>
       <c r="D61">
-        <v>0.01416269758268911</v>
+        <v>0.05318524705993627</v>
       </c>
       <c r="E61">
-        <v>-0.02356785475313536</v>
+        <v>-0.001753884220950552</v>
       </c>
       <c r="F61">
-        <v>-0.03436998507868714</v>
+        <v>-0.02165295535583916</v>
       </c>
       <c r="G61">
-        <v>0.01108977123498452</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0257032071368494</v>
+      </c>
+      <c r="H61">
+        <v>0.05880988156769359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.008536533483043498</v>
+        <v>0.01281302457726</v>
       </c>
       <c r="C63">
-        <v>-0.0159115549566095</v>
+        <v>-0.0008526304017141477</v>
       </c>
       <c r="D63">
-        <v>0.02021817843823988</v>
+        <v>0.02166103099269099</v>
       </c>
       <c r="E63">
-        <v>-0.02427218347519255</v>
+        <v>-0.004515017946943069</v>
       </c>
       <c r="F63">
-        <v>-0.01434634817748773</v>
+        <v>-0.01095982848798073</v>
       </c>
       <c r="G63">
-        <v>0.07258292821051818</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.0165681461118002</v>
+      </c>
+      <c r="H63">
+        <v>0.0126374954301311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03677615692388146</v>
+        <v>0.04135838647064377</v>
       </c>
       <c r="C64">
-        <v>0.006146947440514489</v>
+        <v>0.01114722898182811</v>
       </c>
       <c r="D64">
-        <v>0.002976724997849017</v>
+        <v>0.0378451088575216</v>
       </c>
       <c r="E64">
-        <v>-0.0525380543512221</v>
+        <v>-0.0113480956387918</v>
       </c>
       <c r="F64">
-        <v>-0.04357875411651884</v>
+        <v>-0.003794146969501653</v>
       </c>
       <c r="G64">
-        <v>0.05807584436852777</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.005783611207355198</v>
+      </c>
+      <c r="H64">
+        <v>0.04145253937206173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03328211905919087</v>
+        <v>0.03902584503052414</v>
       </c>
       <c r="C65">
-        <v>-0.009996418485554572</v>
+        <v>0.004220244449129399</v>
       </c>
       <c r="D65">
-        <v>0.00703930875606053</v>
+        <v>0.07172707711387044</v>
       </c>
       <c r="E65">
-        <v>-0.02492828792524793</v>
+        <v>-0.007890090665485912</v>
       </c>
       <c r="F65">
-        <v>-0.008398482682684149</v>
+        <v>-0.03915159868771445</v>
       </c>
       <c r="G65">
-        <v>-0.02136180942343771</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.003243293094561759</v>
+      </c>
+      <c r="H65">
+        <v>0.07460531083739612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03287453047728165</v>
+        <v>0.0285990146547847</v>
       </c>
       <c r="C66">
-        <v>-0.05059967424332499</v>
+        <v>0.0176873660171057</v>
       </c>
       <c r="D66">
-        <v>0.016273825176169</v>
+        <v>0.1060350880973519</v>
       </c>
       <c r="E66">
-        <v>-0.04492213053513994</v>
+        <v>0.009782983131616586</v>
       </c>
       <c r="F66">
-        <v>-0.05563976739369886</v>
+        <v>-0.03945145048492767</v>
       </c>
       <c r="G66">
-        <v>0.01019702220351345</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03743252886106779</v>
+      </c>
+      <c r="H66">
+        <v>0.08333375132705449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0105941229041334</v>
+        <v>0.04710155036188101</v>
       </c>
       <c r="C67">
-        <v>-0.005936693037283077</v>
+        <v>0.01827426153310181</v>
       </c>
       <c r="D67">
-        <v>0.005539400640429468</v>
+        <v>0.01196921531232402</v>
       </c>
       <c r="E67">
-        <v>0.03637116525356176</v>
+        <v>0.003123342555882461</v>
       </c>
       <c r="F67">
-        <v>-0.01992214939856675</v>
+        <v>-0.01885992355728075</v>
       </c>
       <c r="G67">
-        <v>0.00517698585959356</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01245221890344954</v>
+      </c>
+      <c r="H67">
+        <v>0.04547972091241142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07342111226213444</v>
+        <v>0.1609822669157686</v>
       </c>
       <c r="C68">
-        <v>0.0641204401366309</v>
+        <v>-0.02477622024928497</v>
       </c>
       <c r="D68">
-        <v>-0.1283160312852336</v>
+        <v>-0.2350476615693435</v>
       </c>
       <c r="E68">
-        <v>0.1509657952723356</v>
+        <v>0.007567541910245594</v>
       </c>
       <c r="F68">
-        <v>-0.05053111745467009</v>
+        <v>0.04067985026002052</v>
       </c>
       <c r="G68">
-        <v>-0.05856953134970444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02663473649603608</v>
+      </c>
+      <c r="H68">
+        <v>-0.04937671616292269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06469805240038493</v>
+        <v>0.06178370774946326</v>
       </c>
       <c r="C69">
-        <v>-0.04227718248600955</v>
+        <v>0.02950584752399609</v>
       </c>
       <c r="D69">
-        <v>-0.01520072245894489</v>
+        <v>0.04424258107864728</v>
       </c>
       <c r="E69">
-        <v>-0.02103550859841514</v>
+        <v>-0.000288188718180386</v>
       </c>
       <c r="F69">
-        <v>-0.02993426416759362</v>
+        <v>-0.02875240475268586</v>
       </c>
       <c r="G69">
-        <v>0.07405608638392396</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01258899048027394</v>
+      </c>
+      <c r="H69">
+        <v>0.007124608523055732</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07690101094527911</v>
+        <v>0.1501903474145878</v>
       </c>
       <c r="C71">
-        <v>0.06463788444357664</v>
+        <v>-0.01139407146182259</v>
       </c>
       <c r="D71">
-        <v>-0.111710727159316</v>
+        <v>-0.1957794247528397</v>
       </c>
       <c r="E71">
-        <v>0.2039892695027764</v>
+        <v>0.01496251508262938</v>
       </c>
       <c r="F71">
-        <v>-0.04545892108875181</v>
+        <v>0.04823183542078185</v>
       </c>
       <c r="G71">
-        <v>0.01697465590742778</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03011297685549619</v>
+      </c>
+      <c r="H71">
+        <v>-0.02304277606332796</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1133380780823261</v>
+        <v>0.07849649639535107</v>
       </c>
       <c r="C72">
-        <v>-0.06569138008983758</v>
+        <v>0.03995853609984799</v>
       </c>
       <c r="D72">
-        <v>-0.02407643708014069</v>
+        <v>0.07633613795053772</v>
       </c>
       <c r="E72">
-        <v>-0.04530596815975702</v>
+        <v>0.0165409852306051</v>
       </c>
       <c r="F72">
-        <v>-0.07807155138276495</v>
+        <v>-0.06644131738808065</v>
       </c>
       <c r="G72">
-        <v>-0.115695484693999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02353410405419877</v>
+      </c>
+      <c r="H72">
+        <v>0.1332402968710326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2147217026850547</v>
+        <v>0.2563003147177203</v>
       </c>
       <c r="C73">
-        <v>-0.1119382019656192</v>
+        <v>0.04237981710947265</v>
       </c>
       <c r="D73">
-        <v>0.02159361633491858</v>
+        <v>0.08852984014951269</v>
       </c>
       <c r="E73">
-        <v>0.1791210690125678</v>
+        <v>0.09193247503656037</v>
       </c>
       <c r="F73">
-        <v>-0.2182667851992613</v>
+        <v>-0.0620924595180688</v>
       </c>
       <c r="G73">
-        <v>-0.4633357142837768</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.04505776914312425</v>
+      </c>
+      <c r="H73">
+        <v>0.4825742761117812</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1353059089776857</v>
+        <v>0.1184622533522828</v>
       </c>
       <c r="C74">
-        <v>-0.03419598305167473</v>
+        <v>0.05425046235386339</v>
       </c>
       <c r="D74">
-        <v>-0.009941237256282936</v>
+        <v>0.1067510892963278</v>
       </c>
       <c r="E74">
-        <v>-0.0513677850653536</v>
+        <v>-0.008038999670341957</v>
       </c>
       <c r="F74">
-        <v>0.07499034973936844</v>
+        <v>-0.03732544965395634</v>
       </c>
       <c r="G74">
-        <v>0.008634665066252503</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05934231645436067</v>
+      </c>
+      <c r="H74">
+        <v>-0.02693129052999397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2291044036534803</v>
+        <v>0.2291175190054059</v>
       </c>
       <c r="C75">
-        <v>-0.1008210198147106</v>
+        <v>0.1003771304215187</v>
       </c>
       <c r="D75">
-        <v>-0.08032649238627894</v>
+        <v>0.1620499858847775</v>
       </c>
       <c r="E75">
-        <v>-0.1097603583748934</v>
+        <v>0.009409205162913327</v>
       </c>
       <c r="F75">
-        <v>0.09154643493429218</v>
+        <v>-0.09975033799943117</v>
       </c>
       <c r="G75">
-        <v>0.01974055393364315</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1196775849949189</v>
+      </c>
+      <c r="H75">
+        <v>-0.1363752040680331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2786306734828797</v>
+        <v>0.1935961381617794</v>
       </c>
       <c r="C76">
-        <v>-0.09176956619344843</v>
+        <v>0.09294800350557765</v>
       </c>
       <c r="D76">
-        <v>-0.109569024050876</v>
+        <v>0.160016739481903</v>
       </c>
       <c r="E76">
-        <v>-0.1635368718642993</v>
+        <v>-0.03786991626619557</v>
       </c>
       <c r="F76">
-        <v>0.1619271496059569</v>
+        <v>-0.09353909193385795</v>
       </c>
       <c r="G76">
-        <v>-0.009557401172579603</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.114744707739568</v>
+      </c>
+      <c r="H76">
+        <v>-0.1339217079898715</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1307315471490876</v>
+        <v>0.07117142611210839</v>
       </c>
       <c r="C77">
-        <v>-0.04476547726936616</v>
+        <v>0.01452201970339138</v>
       </c>
       <c r="D77">
-        <v>0.09060635872189392</v>
+        <v>0.07643316866151451</v>
       </c>
       <c r="E77">
-        <v>-0.04568507305266149</v>
+        <v>0.01630481635513412</v>
       </c>
       <c r="F77">
-        <v>-0.1890300301337072</v>
+        <v>0.01466797195858326</v>
       </c>
       <c r="G77">
-        <v>0.2407363778784981</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.08136238956513518</v>
+      </c>
+      <c r="H77">
+        <v>0.01277751795456623</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07469705481422333</v>
+        <v>0.04000788981218424</v>
       </c>
       <c r="C78">
-        <v>-0.03971150778927836</v>
+        <v>0.01524562155030283</v>
       </c>
       <c r="D78">
-        <v>0.05029834071980775</v>
+        <v>0.06602472296799067</v>
       </c>
       <c r="E78">
-        <v>-0.07588942879683228</v>
+        <v>-0.0006040796945782336</v>
       </c>
       <c r="F78">
-        <v>-0.1143061122308001</v>
+        <v>-0.02159840059662655</v>
       </c>
       <c r="G78">
-        <v>0.03218657407506194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06485434941022597</v>
+      </c>
+      <c r="H78">
+        <v>0.08510396139295311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2572485070408894</v>
+        <v>0.1393554418428934</v>
       </c>
       <c r="C80">
-        <v>0.8772835678269688</v>
+        <v>0.03628941116839089</v>
       </c>
       <c r="D80">
-        <v>0.07086438019687777</v>
+        <v>0.07848101882296189</v>
       </c>
       <c r="E80">
-        <v>-0.3419327349604217</v>
+        <v>-0.9337527672698827</v>
       </c>
       <c r="F80">
-        <v>-0.05902566852195928</v>
+        <v>0.2185543667600267</v>
       </c>
       <c r="G80">
-        <v>-0.1236389413256432</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1610005062307034</v>
+      </c>
+      <c r="H80">
+        <v>0.004612695396606391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1780587312509534</v>
+        <v>0.1541590009085423</v>
       </c>
       <c r="C81">
-        <v>-0.07205030741455658</v>
+        <v>0.06597622038672477</v>
       </c>
       <c r="D81">
-        <v>-0.08191241101961952</v>
+        <v>0.1041584580616261</v>
       </c>
       <c r="E81">
-        <v>-0.09199564987924495</v>
+        <v>-0.01004954015148191</v>
       </c>
       <c r="F81">
-        <v>0.1051824959397799</v>
+        <v>-0.06740995432904412</v>
       </c>
       <c r="G81">
-        <v>-0.01200562031728348</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08059102128789149</v>
+      </c>
+      <c r="H81">
+        <v>-0.08952207931496506</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03251108323228299</v>
+        <v>0.03281006390749978</v>
       </c>
       <c r="C83">
-        <v>-0.02618874960941213</v>
+        <v>0.006537527877051977</v>
       </c>
       <c r="D83">
-        <v>0.01869940227048742</v>
+        <v>0.02454774008043051</v>
       </c>
       <c r="E83">
-        <v>0.001701802923133132</v>
+        <v>0.008368398447343285</v>
       </c>
       <c r="F83">
-        <v>-0.067304589941113</v>
+        <v>-0.01025081874906903</v>
       </c>
       <c r="G83">
-        <v>0.04359044326383951</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04778540657882166</v>
+      </c>
+      <c r="H83">
+        <v>0.04088558199883965</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2612697186698616</v>
+        <v>0.2148955119335107</v>
       </c>
       <c r="C85">
-        <v>-0.08919603839088383</v>
+        <v>0.08487436742930027</v>
       </c>
       <c r="D85">
-        <v>-0.08165075181226919</v>
+        <v>0.1687343357316167</v>
       </c>
       <c r="E85">
-        <v>-0.1252722811551599</v>
+        <v>0.003639369435435174</v>
       </c>
       <c r="F85">
-        <v>0.1082210548138749</v>
+        <v>-0.0828275042537772</v>
       </c>
       <c r="G85">
-        <v>0.02471160897705224</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1314832730271623</v>
+      </c>
+      <c r="H85">
+        <v>-0.09643697182946691</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.00525593968280445</v>
+        <v>0.02650672474462424</v>
       </c>
       <c r="C86">
-        <v>0.003274790900158398</v>
+        <v>0.00444237455098757</v>
       </c>
       <c r="D86">
-        <v>0.03114004615229476</v>
+        <v>0.0347968555903993</v>
       </c>
       <c r="E86">
-        <v>-0.02569911568045552</v>
+        <v>-0.0006995159356752589</v>
       </c>
       <c r="F86">
-        <v>-0.07678313673953838</v>
+        <v>0.002162284365913892</v>
       </c>
       <c r="G86">
-        <v>0.05930160203743007</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05612383083441329</v>
+      </c>
+      <c r="H86">
+        <v>0.09392443274089234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.04153003226773021</v>
+        <v>0.02633758536925834</v>
       </c>
       <c r="C87">
-        <v>0.002514868186491088</v>
+        <v>0.005147397298748482</v>
       </c>
       <c r="D87">
-        <v>0.02305176918177342</v>
+        <v>0.04571774894908794</v>
       </c>
       <c r="E87">
-        <v>-0.01080091193808352</v>
+        <v>-0.003433979299914616</v>
       </c>
       <c r="F87">
-        <v>-0.1135980734959764</v>
+        <v>-0.005379863754680356</v>
       </c>
       <c r="G87">
-        <v>0.04129049821744354</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08064981778303097</v>
+      </c>
+      <c r="H87">
+        <v>0.0802279630134389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01236872594122776</v>
+        <v>0.04339037194598452</v>
       </c>
       <c r="C88">
-        <v>0.01325577469043613</v>
+        <v>-0.009466238034813826</v>
       </c>
       <c r="D88">
-        <v>-0.01504101080294439</v>
+        <v>0.0195405608798866</v>
       </c>
       <c r="E88">
-        <v>-0.01460220355311795</v>
+        <v>-0.01256641463323502</v>
       </c>
       <c r="F88">
-        <v>0.0001519655065844423</v>
+        <v>-0.01904963448735758</v>
       </c>
       <c r="G88">
-        <v>0.06133823376270973</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.000933468393099435</v>
+      </c>
+      <c r="H88">
+        <v>0.01955092457975523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1072313351910556</v>
+        <v>0.2608727971864308</v>
       </c>
       <c r="C89">
-        <v>0.09581077963533401</v>
+        <v>-0.02244199104792818</v>
       </c>
       <c r="D89">
-        <v>-0.1914536544928094</v>
+        <v>-0.3484590033963166</v>
       </c>
       <c r="E89">
-        <v>0.2527730788109441</v>
+        <v>0.0185589203414977</v>
       </c>
       <c r="F89">
-        <v>-0.08951951510627459</v>
+        <v>0.02754816324107931</v>
       </c>
       <c r="G89">
-        <v>0.01798755221674353</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.001481578369734274</v>
+      </c>
+      <c r="H89">
+        <v>0.009268221360937638</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09105617270396731</v>
+        <v>0.2111623511625038</v>
       </c>
       <c r="C90">
-        <v>0.1412343418768877</v>
+        <v>-0.02143322236235382</v>
       </c>
       <c r="D90">
-        <v>-0.2149256580071413</v>
+        <v>-0.3148044321258456</v>
       </c>
       <c r="E90">
-        <v>0.2663927705605761</v>
+        <v>0.0101371535394041</v>
       </c>
       <c r="F90">
-        <v>-0.03726917381384359</v>
+        <v>0.0526915606693971</v>
       </c>
       <c r="G90">
-        <v>0.05254181545080232</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01074039688480542</v>
+      </c>
+      <c r="H90">
+        <v>-0.05357027729223953</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3064280283636543</v>
+        <v>0.2287497741179362</v>
       </c>
       <c r="C91">
-        <v>-0.1317867272369614</v>
+        <v>0.09690933945888555</v>
       </c>
       <c r="D91">
-        <v>-0.08308122186685342</v>
+        <v>0.1494252469912268</v>
       </c>
       <c r="E91">
-        <v>-0.1189595652298961</v>
+        <v>0.009988045584578031</v>
       </c>
       <c r="F91">
-        <v>0.2224116528184422</v>
+        <v>-0.08384272856654736</v>
       </c>
       <c r="G91">
-        <v>-0.01817592395055359</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1404584722522006</v>
+      </c>
+      <c r="H91">
+        <v>-0.1687862568824458</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1746288580215772</v>
+        <v>0.2550679891058191</v>
       </c>
       <c r="C92">
-        <v>0.08567636902396898</v>
+        <v>0.04706429626214111</v>
       </c>
       <c r="D92">
-        <v>-0.3790756432147241</v>
+        <v>-0.2401470651291505</v>
       </c>
       <c r="E92">
-        <v>0.2111578572301286</v>
+        <v>0.0006228314269342404</v>
       </c>
       <c r="F92">
-        <v>0.1110409606579684</v>
+        <v>-0.01475417325524147</v>
       </c>
       <c r="G92">
-        <v>0.4332535884415472</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02063940906036595</v>
+      </c>
+      <c r="H92">
+        <v>-0.11926670258056</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.0957540338116256</v>
+        <v>0.2369135347634998</v>
       </c>
       <c r="C93">
-        <v>0.1239365004318143</v>
+        <v>-0.01187657426196138</v>
       </c>
       <c r="D93">
-        <v>-0.247443755046589</v>
+        <v>-0.3232907371463377</v>
       </c>
       <c r="E93">
-        <v>0.3674237962503684</v>
+        <v>0.03247546132511597</v>
       </c>
       <c r="F93">
-        <v>0.005410534663683226</v>
+        <v>0.05549326490865838</v>
       </c>
       <c r="G93">
-        <v>-0.03687465974403883</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.008211804883349246</v>
+      </c>
+      <c r="H93">
+        <v>0.01026381578628908</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3014316107878188</v>
+        <v>0.2801976719239522</v>
       </c>
       <c r="C94">
-        <v>-0.1602019869429705</v>
+        <v>0.09263906937948073</v>
       </c>
       <c r="D94">
-        <v>-0.1759843349816149</v>
+        <v>0.1450346256126358</v>
       </c>
       <c r="E94">
-        <v>-0.1553330156635544</v>
+        <v>0.02974895166057382</v>
       </c>
       <c r="F94">
-        <v>0.1590416335034587</v>
+        <v>-0.1847807386280968</v>
       </c>
       <c r="G94">
-        <v>-0.04666008408001718</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2345728539626084</v>
+      </c>
+      <c r="H94">
+        <v>-0.2830475050311952</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.04513594133012132</v>
+        <v>0.05492921642830947</v>
       </c>
       <c r="C95">
-        <v>-0.04630148561869332</v>
+        <v>0.03511645274760498</v>
       </c>
       <c r="D95">
-        <v>0.05323882238750931</v>
+        <v>0.08508596400041336</v>
       </c>
       <c r="E95">
-        <v>-0.05501217583113578</v>
+        <v>0.0824414379203435</v>
       </c>
       <c r="F95">
-        <v>-0.06575488492316917</v>
+        <v>0.005880192242297426</v>
       </c>
       <c r="G95">
-        <v>0.226488815110477</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05234607652978378</v>
+      </c>
+      <c r="H95">
+        <v>0.05358788107950182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1609791719169145</v>
+        <v>0.1832874899323067</v>
       </c>
       <c r="C98">
-        <v>-0.053971416597605</v>
+        <v>0.05632155926911277</v>
       </c>
       <c r="D98">
-        <v>0.02778698256027959</v>
+        <v>0.03494590762332712</v>
       </c>
       <c r="E98">
-        <v>0.1393135357133434</v>
+        <v>0.0567380673776894</v>
       </c>
       <c r="F98">
-        <v>-0.1302704298685981</v>
+        <v>-0.008871094811355529</v>
       </c>
       <c r="G98">
-        <v>-0.3599490353152226</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07828576592811372</v>
+      </c>
+      <c r="H98">
+        <v>0.3428490553142526</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00514536096196165</v>
+        <v>0.01757790317612501</v>
       </c>
       <c r="C101">
-        <v>-0.009900225738370955</v>
+        <v>0.0004646854155044857</v>
       </c>
       <c r="D101">
-        <v>0.02138480112547355</v>
+        <v>0.01336444844326068</v>
       </c>
       <c r="E101">
-        <v>-0.06947523285221727</v>
+        <v>-0.003056679816322928</v>
       </c>
       <c r="F101">
-        <v>-0.175038408065345</v>
+        <v>-0.01890408038424399</v>
       </c>
       <c r="G101">
-        <v>0.07579804371647018</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1017595496873813</v>
+      </c>
+      <c r="H101">
+        <v>-0.02087900414120498</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1149377746303885</v>
+        <v>0.1023987187299906</v>
       </c>
       <c r="C102">
-        <v>-0.04677314508198371</v>
+        <v>0.03376978556006829</v>
       </c>
       <c r="D102">
-        <v>-0.03155748432812402</v>
+        <v>0.08298598351330036</v>
       </c>
       <c r="E102">
-        <v>-0.07398739382525439</v>
+        <v>-0.00283491412442923</v>
       </c>
       <c r="F102">
-        <v>0.08072998168493727</v>
+        <v>-0.04735255556559857</v>
       </c>
       <c r="G102">
-        <v>-0.001061862100795372</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07207983261704809</v>
+      </c>
+      <c r="H102">
+        <v>-0.06516046298681032</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04394310056689211</v>
+        <v>0.01530406555166756</v>
       </c>
       <c r="C103">
-        <v>-0.007799005630505626</v>
+        <v>0.006245829811279204</v>
       </c>
       <c r="D103">
-        <v>-0.008714400562095307</v>
+        <v>0.01553368776866535</v>
       </c>
       <c r="E103">
-        <v>-0.05299219529355965</v>
+        <v>-0.008302948048825433</v>
       </c>
       <c r="F103">
-        <v>-0.009100373302193942</v>
+        <v>-0.007216083240982656</v>
       </c>
       <c r="G103">
-        <v>0.04115500941915323</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.001726904715428691</v>
+      </c>
+      <c r="H103">
+        <v>-0.01244198670005097</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1857576076066381</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9565667254812515</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1455544796041802</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02873880155660299</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.130533231799617</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01315903887834501</v>
+      </c>
+      <c r="H104">
+        <v>-0.04881581752278407</v>
       </c>
     </row>
   </sheetData>
